--- a/Examples/ganttChartExample.xlsx
+++ b/Examples/ganttChartExample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dff1\Desktop\IntroToOSHW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dff1\Desktop\IntroToOSHW\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="12045"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18270" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +421,7 @@
     <col min="27" max="28" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="2.140625" customWidth="1"/>
     <col min="30" max="30" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
